--- a/自动化测试用例.xlsx
+++ b/自动化测试用例.xlsx
@@ -7,21 +7,342 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="4020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="佳缘WEB UI 测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>long ligo</author>
+  </authors>
+  <commentList>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动化脚本名称:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+test_login_and_logout</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">自动化脚本:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>test_focus_pic_auto_run</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动化脚本编写，可以通过直接注入 uid cookie，然后直接跳转到主页来达到同样的效果，提高测试效率。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动化脚本:test_hover_focus_pic_btn</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动化脚本:
+test_float_show_with_phone_user</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>由于浮层是可以通过配置显示出来的，因此可能会存在其中一个不显示的情况</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动化脚本:
+test_float_with_nophone_user</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动化脚本:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+test_index_focus_pic_auto_run</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自动化脚本:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+test_index_hover_focus_pic_btn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">自动化脚本：
+test_inbox_layer_once
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WS-003</t>
+  </si>
+  <si>
+    <t>WS-004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码龙哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非认证用户： 用户名(*), 密码（*）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证用户：用户名(*), 密码（*）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>用例标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,128 +359,296 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试用例登录和登出正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号已认证且正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网页跳转到登出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试未登录状态下轮播图是否正常播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已登录过，此时 cookie 中含有用户
-uid 信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 直接进入www.jiayuan.com网页
-2. 等待观察轮播图的播放情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮播图按一定间隔（4s)播放，没有卡顿情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试在用户点击轮播图上的小圆点时
-能够进行轮播图切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 直接进入www.jiayuan.com网页
-2. 逐个点击轮播图上的小圆点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击圆点的时候轮播图进行了切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulg_01(test_login_and_logout)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulg_02(test_focus_pic_auto_run)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulg_03(test_hover_focus_pic_btn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>home_01(test_float_show_with_phone_user)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号已经经过手机认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 在登录框中输入账号名
-2. 去掉拦截提示框
-3. 点击头部的退出链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 在登录框中输入账号名点击登录
-2.登录后观察左右两边的浮层
+    <t>认证用户 uid: *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>主站网址：*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查用户登录后能够正常登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在登录框中输入认证用户
+2. 点击登录按钮
+3. 关闭拦截提示框
+4. 点击头部的退出链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.能够输入账号
+2.网站跳转到佳缘主页面，主页面弹出广告拦截框
+3.拦截框关闭
+4.网站跳转到退出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查退出后的主站首页轮播图正常播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#WL-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.轮播图间隔（4s)播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 观察轮播图播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.轮播图根据小圆点的位置切换到对应的图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查手动切换轮播图可以正常切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查停留查看轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查认证用户登录世纪佳缘主页的浮层正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 观察左右两边的浮层
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试认证账号登录后世纪佳缘主页的
-浮层正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>home_02(test_float_with_nophone_user)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号为非手机认证账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试非认证账号登录后世纪佳缘主页的浮层正常显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右浮层会显示出来（浮层会根据配置进行调整，可能左右浮层只显示其中的某一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_01(test_index_focus_pic_auto_run)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳缘首页的轮播图每隔4s轮播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.登录到主页
-2.点击首页跳转首页
-3.观察轮播图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index_02(test_index_hover_focus_pic_btn)佳缘首页轮播图按钮能够触发轮播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.登录到主页
-2.点击首页跳转首页
-3.把鼠标依次放到轮播图的小按钮上面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在鼠标放到轮播图不同按钮时，轮播图有正常切换</t>
+    <t>1.左右浮层正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进入主站：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 打开 chrome 浏览器
+2. 进入主站网址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查非认证账号登录世纪佳缘主页的浮层显示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查登录后的佳缘首页的轮播图正常播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.网站跳转到佳缘首面
+2.轮播图间隔（4s)播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS-007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在导航栏点击首页跳转链接
+2.把鼠标依次放到轮播图的小按钮上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在导航栏点击首页跳转链接
+2.观察轮播图播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查登录后的佳缘首页的轮播图手动切换正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.网站跳转到佳缘首面
+2.轮播图根据小圆点的位置切换到对应的图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查登录后的佳缘首页的轮播图停留查看正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 鼠标放到轮播图上不同的小圆点上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 鼠标放到轮播图非小圆点上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在导航栏点击首页跳转链接
+2.鼠标放到轮播图非小圆点上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.轮播图停留在鼠标放置的轮播图上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.网站跳转到佳缘首面
+2.轮播图停留在鼠标放置的轮播图上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS-009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WL-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查信箱查看页面每天第一次打开时，会弹出广告层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击左边栏的查看收件箱按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.网站跳转到收件箱主页面，显示广告拦截层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. {2}
+2. 一天的第一次打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进入认证用户佳缘主页面：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. {1}
+2. 在登录框中输入认证用户
+3. 点击登录按钮
+4. 关闭拦截层提示框</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进入非认证用户佳缘主页面：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. {1}
+2. 在登录框中输入非认证用户
+3. 点击登录按钮
+4. 关闭拦截层提示框</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,16 +672,73 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,30 +761,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -264,10 +992,16 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,178 +1296,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="43.375" customWidth="1"/>
+    <col min="6" max="7" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G24" s="6" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G25 G30:G1048576">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="suspended">
+      <formula>NOT(ISERROR(SEARCH("suspended",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G25">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",G18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="suspended">
+      <formula>NOT(ISERROR(SEARCH("suspended",G26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",G26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",G26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="suspended">
+      <formula>NOT(ISERROR(SEARCH("suspended",G28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",G28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",G28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="suspended">
+      <formula>NOT(ISERROR(SEARCH("suspended",G29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",G29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",G29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G18:G29">
+      <formula1>"pass,fail,not executed,suspended"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/自动化测试用例.xlsx
+++ b/自动化测试用例.xlsx
@@ -816,57 +816,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -992,8 +942,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1300,7 +1250,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1698,54 +1648,54 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G25 G30:G1048576">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="suspended">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="suspended">
       <formula>NOT(ISERROR(SEARCH("suspended",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G25">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="suspended">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="suspended">
       <formula>NOT(ISERROR(SEARCH("suspended",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="suspended">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="suspended">
       <formula>NOT(ISERROR(SEARCH("suspended",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="suspended">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="suspended">
       <formula>NOT(ISERROR(SEARCH("suspended",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
